--- a/LumenData.xlsx
+++ b/LumenData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Output Data" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Chart" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Output Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Chart" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -79,15 +79,15 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:r>
-              <a:t> Color Rendering (R4), Radiant Flux (Watts), Luminous Flux (lumens) vs Elapsed Time</a:t>
+              <a:t>Hello</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -102,14 +102,14 @@
             <v>Color Rendering (R4)</v>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -132,14 +132,14 @@
             <v>Radiant Flux (Watts)</v>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -162,14 +162,14 @@
             <v>Luminous Flux (lumens)</v>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -198,8 +198,8 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:bodyPr/>
+              <a:p>
                 <a:r>
                   <a:t>Elapsed Time</a:t>
                 </a:r>
@@ -233,16 +233,16 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<chartsheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </chartsheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <absoluteAnchor>
     <pos x="0" y="0"/>
     <ext cx="0" cy="0"/>
@@ -252,9 +252,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>

--- a/LumenData.xlsx
+++ b/LumenData.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Output Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Chart" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -78,6 +79,161 @@
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:r>
+              <a:t> Color Rendering (R4), Radiant Flux (Watts) vs Elapsed Time</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <scatterChart>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <v>Color Rendering (R4)</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'Output Data'!$C$2:$C$982</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'Output Data'!$F$2:$F$982</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <v>Radiant Flux (Watts)</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'Output Data'!$C$2:$C$982</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'Output Data'!$I$2:$I$982</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <axId val="10"/>
+        <axId val="20"/>
+      </scatterChart>
+      <valAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:r>
+                  <a:t>Elapsed Time</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <absoluteAnchor>
+    <pos x="0" y="0"/>
+    <ext cx="0" cy="0"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </absoluteAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
